--- a/ActiTimeMavenAutomation/TestScriptDataFiles/CreateUser.xlsx
+++ b/ActiTimeMavenAutomation/TestScriptDataFiles/CreateUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CurrentWorkspace\ExampleAutomation\ActiTimeMavenAutomation\TestScriptDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70AC575-A338-43D5-8799-141EE57BB10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB889F59-FE20-4588-B0EE-0CE98C9D109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
